--- a/out/production/Java_OOP/a_Kamiles/Kamiles.xlsx
+++ b/out/production/Java_OOP/a_Kamiles/Kamiles.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\Java_OOP\src\a_testavimas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\Java_OOP\src\a_Kamiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Integer[] arr = new Integer[5];</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>values</t>
+  </si>
+  <si>
+    <t>i</t>
   </si>
 </sst>
 </file>
@@ -379,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F5"/>
+  <dimension ref="A2:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -391,12 +394,12 @@
     <col min="2" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -415,8 +418,11 @@
       <c r="F3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -435,13 +441,100 @@
       <c r="F4" s="1">
         <v>10007</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="N4">
+        <v>10</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="F5">
         <v>5</v>
+      </c>
+      <c r="N5">
+        <v>11</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N6">
+        <v>12</v>
+      </c>
+      <c r="O6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N7">
+        <v>13</v>
+      </c>
+      <c r="O7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N8">
+        <v>14</v>
+      </c>
+      <c r="O8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N9">
+        <v>15</v>
+      </c>
+      <c r="O9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N10">
+        <v>16</v>
+      </c>
+      <c r="O10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N11">
+        <v>17</v>
+      </c>
+      <c r="O11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N12">
+        <v>18</v>
+      </c>
+      <c r="O12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N13">
+        <v>19</v>
+      </c>
+      <c r="O13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N14">
+        <v>20</v>
+      </c>
+      <c r="O14">
+        <v>10</v>
+      </c>
+      <c r="P14">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
